--- a/chp2.xlsx
+++ b/chp2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\VESP\AIML\Project's\ESY-SEM-REPLICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FA08C2-68F0-4218-9A98-EE887BD627F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9CC9D5-C93D-4F57-B425-1A873A93F548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,9 +743,6 @@
     <t>Contour farming</t>
   </si>
   <si>
-    <t>Only ......%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Resources which are not reproducible are called </t>
   </si>
   <si>
@@ -1464,6 +1461,9 @@
   </si>
   <si>
     <t>all of above</t>
+  </si>
+  <si>
+    <t>Only ......% of total water resources is available for human use</t>
   </si>
 </sst>
 </file>
@@ -1801,15 +1801,16 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="2" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
@@ -3539,7 +3540,7 @@
         <v>219</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>11</v>
@@ -3714,9 +3715,9 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="B51" s="9">
         <v>2E-3</v>
@@ -3754,19 +3755,19 @@
     </row>
     <row r="52" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
@@ -3792,19 +3793,19 @@
     </row>
     <row r="53" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
@@ -3830,16 +3831,16 @@
     </row>
     <row r="54" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>15</v>
@@ -3868,16 +3869,16 @@
     </row>
     <row r="55" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>15</v>
@@ -3906,19 +3907,19 @@
     </row>
     <row r="56" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
@@ -3944,13 +3945,13 @@
     </row>
     <row r="57" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -3978,13 +3979,13 @@
     </row>
     <row r="58" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4012,19 +4013,19 @@
     </row>
     <row r="59" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
@@ -4050,19 +4051,19 @@
     </row>
     <row r="60" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
@@ -4088,13 +4089,13 @@
     </row>
     <row r="61" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -4122,19 +4123,19 @@
     </row>
     <row r="62" spans="1:24" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
@@ -4160,7 +4161,7 @@
     </row>
     <row r="63" spans="1:24" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B63" s="2">
         <v>100</v>
@@ -4198,19 +4199,19 @@
     </row>
     <row r="64" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
@@ -4236,19 +4237,19 @@
     </row>
     <row r="65" spans="1:24" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
@@ -4274,7 +4275,7 @@
     </row>
     <row r="66" spans="1:24" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B66" s="2">
         <v>5</v>
@@ -4312,19 +4313,19 @@
     </row>
     <row r="67" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
@@ -4350,19 +4351,19 @@
     </row>
     <row r="68" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
@@ -4388,7 +4389,7 @@
     </row>
     <row r="69" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B69" s="2">
         <v>10</v>
@@ -4426,19 +4427,19 @@
     </row>
     <row r="70" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
@@ -4464,19 +4465,19 @@
     </row>
     <row r="71" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
@@ -4502,19 +4503,19 @@
     </row>
     <row r="72" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
@@ -4540,7 +4541,7 @@
     </row>
     <row r="73" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B73" s="3" t="b">
         <v>1</v>
@@ -4574,10 +4575,10 @@
     </row>
     <row r="74" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="C74" s="2" t="b">
         <v>0</v>
@@ -4608,19 +4609,19 @@
     </row>
     <row r="75" spans="1:24" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
@@ -4646,19 +4647,19 @@
     </row>
     <row r="76" spans="1:24" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
@@ -4684,19 +4685,19 @@
     </row>
     <row r="77" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
@@ -4722,19 +4723,19 @@
     </row>
     <row r="78" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
@@ -4760,19 +4761,19 @@
     </row>
     <row r="79" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
@@ -4798,19 +4799,19 @@
     </row>
     <row r="80" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
@@ -4836,19 +4837,19 @@
     </row>
     <row r="81" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
@@ -4874,19 +4875,19 @@
     </row>
     <row r="82" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
@@ -4912,19 +4913,19 @@
     </row>
     <row r="83" spans="1:24" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
@@ -4950,19 +4951,19 @@
     </row>
     <row r="84" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
@@ -4988,19 +4989,19 @@
     </row>
     <row r="85" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
@@ -5026,19 +5027,19 @@
     </row>
     <row r="86" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
@@ -5064,19 +5065,19 @@
     </row>
     <row r="87" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
@@ -5102,7 +5103,7 @@
     </row>
     <row r="88" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B88" s="3">
         <v>22.7</v>
@@ -5140,7 +5141,7 @@
     </row>
     <row r="89" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B89" s="3">
         <v>97</v>
@@ -5178,19 +5179,19 @@
     </row>
     <row r="90" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2" t="s">
@@ -5216,19 +5217,19 @@
     </row>
     <row r="91" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2" t="s">
@@ -5254,19 +5255,19 @@
     </row>
     <row r="92" spans="1:24" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
@@ -5292,7 +5293,7 @@
     </row>
     <row r="93" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -5330,7 +5331,7 @@
     </row>
     <row r="94" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B94" s="3">
         <v>0.3</v>
@@ -5342,7 +5343,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
@@ -5368,7 +5369,7 @@
     </row>
     <row r="95" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B95" s="2">
         <v>1.1000000000000001</v>
@@ -5406,19 +5407,19 @@
     </row>
     <row r="96" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
@@ -5444,19 +5445,19 @@
     </row>
     <row r="97" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
@@ -5482,19 +5483,19 @@
     </row>
     <row r="98" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
@@ -5520,7 +5521,7 @@
     </row>
     <row r="99" spans="1:24" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B99" s="6">
         <v>0.06</v>
@@ -5558,19 +5559,19 @@
     </row>
     <row r="100" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
@@ -5596,7 +5597,7 @@
     </row>
     <row r="101" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B101" s="3">
         <v>6</v>
@@ -5634,19 +5635,19 @@
     </row>
     <row r="102" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
@@ -5672,19 +5673,19 @@
     </row>
     <row r="103" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
@@ -5710,19 +5711,19 @@
     </row>
     <row r="104" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
@@ -5748,19 +5749,19 @@
     </row>
     <row r="105" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
@@ -5786,19 +5787,19 @@
     </row>
     <row r="106" spans="1:24" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
@@ -5824,19 +5825,19 @@
     </row>
     <row r="107" spans="1:24" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
@@ -5862,19 +5863,19 @@
     </row>
     <row r="108" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
@@ -5900,19 +5901,19 @@
     </row>
     <row r="109" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
@@ -5938,19 +5939,19 @@
     </row>
     <row r="110" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
@@ -5976,19 +5977,19 @@
     </row>
     <row r="111" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="C111" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
@@ -6014,19 +6015,19 @@
     </row>
     <row r="112" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
@@ -6052,19 +6053,19 @@
     </row>
     <row r="113" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
@@ -6090,7 +6091,7 @@
     </row>
     <row r="114" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B114" s="5">
         <v>0.33</v>
@@ -6128,19 +6129,19 @@
     </row>
     <row r="115" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="C115" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
@@ -6164,7 +6165,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6190,7 +6191,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -29149,6 +29150,7 @@
       <c r="X999" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>